--- a/medicine/Enfance/Marie_José_Thériault/Marie_José_Thériault.xlsx
+++ b/medicine/Enfance/Marie_José_Thériault/Marie_José_Thériault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marie_Jos%C3%A9_Th%C3%A9riault</t>
+          <t>Marie_José_Thériault</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie José Thériault, née à Montréal en 1945, est danseuse, chanteuse, écrivaine, chroniqueuse littéraire (presse écrite et parlée), éditrice et traductrice québécoise.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marie_Jos%C3%A9_Th%C3%A9riault</t>
+          <t>Marie_José_Thériault</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,20 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née à Montréal en 1945, Marie José Thériault est la fille du romancier Yves Thériault (1915-1983) et de Germaine (Michelle) Blanchet (1913-1995), la nièce de l'auteur-compositeur-interprète Jacques Blanchet (1931-1981) et la sœur du canoniste Michel Thériault (1942-2000).
-Elle fait ses études à Montréal aux collèges Villa-Maria et Marie-de-France. Elle fréquente ensuite l'Université de Florence, en Italie, et l'Académie de ballet Daria Collin, à New York[1].
-Carrière musicale
-Entre 1963 et 1966, elle est soliste dans la troupe de Julio Piedra et sa compagnie de danse espagnole et se produit lors de tournées en Amérique du Nord[1]. Puis, en 1967 et en 1968, elle enregistre son premier disque à Milan[1].
-De 1968 à 1973, elle s’investit dans le monde du spectacle et donne à la fois dans le chant, la danse et la mise en scène. Puis, elle plaque la scène et se consacre à son travail à la radio et la télévision[1].
-En 2013, elle remonte sur les planches comme chanteuse avec l’Orchestre tzigane de Montréal[2].
-Carrière littéraire
-Elle publie ses premiers ouvrages à partir de 1971. Il s’agit à la fois de traductions, de recueils de poésies et de contes[1]. Elle publie près d'une vingtaine de livres, en incluant les collectifs. Sur le lot, on compte quatre recueils de poésie et trois recueils de contes[3].
-Elle est chroniqueuse littéraire à la radio, membre du comité de rédaction de plusieurs revues - notamment XYZ, Vice &amp; Versa et Liberté[1] - en plus d'être traductrice[3]. Elle fait partie de nombreux jurys pour des prix et des bourses littéraires et s’est souvent rendue à l'étranger pour donner des conférences et participer à des animations ou à des lectures publiques[3]. Elle collabore également avec le quotidien Le Devoir[4].
-Elle devient directrice littéraire des Éditions Hurtubise HMH de 1975 à 1984[5].
-Elle reçoit en 1984 le prix Canada-Suisse 1984 pour son recueil Invariance[1]. Elle reçoit de nombreux prix au fil de sa carrière, dont plusieurs pour ses traductions. Elle reçoit ainsi le Prix littéraire du Gouverneur général du Canada en 1987 pour la version française de Digging the Mountains de l’écrivain Neil Bissoondath[1].
-Elle fonde en 1987 Les Éditions Sans Nom, une maison se consacrant principalement à l'édition de livres d'art[3]. En 2003, elle fonde les Éditions Le dernier havre afin de regrouper l’ensemble de l’œuvre de son père l’écrivain Yves Thériault et de gérer l’ensemble de ses droits[6],[7].
+Elle fait ses études à Montréal aux collèges Villa-Maria et Marie-de-France. Elle fréquente ensuite l'Université de Florence, en Italie, et l'Académie de ballet Daria Collin, à New York.
 </t>
         </is>
       </c>
@@ -535,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marie_Jos%C3%A9_Th%C3%A9riault</t>
+          <t>Marie_José_Thériault</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,32 +554,287 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière musicale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1963 et 1966, elle est soliste dans la troupe de Julio Piedra et sa compagnie de danse espagnole et se produit lors de tournées en Amérique du Nord. Puis, en 1967 et en 1968, elle enregistre son premier disque à Milan.
+De 1968 à 1973, elle s’investit dans le monde du spectacle et donne à la fois dans le chant, la danse et la mise en scène. Puis, elle plaque la scène et se consacre à son travail à la radio et la télévision.
+En 2013, elle remonte sur les planches comme chanteuse avec l’Orchestre tzigane de Montréal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marie_José_Thériault</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Jos%C3%A9_Th%C3%A9riault</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière littéraire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle publie ses premiers ouvrages à partir de 1971. Il s’agit à la fois de traductions, de recueils de poésies et de contes. Elle publie près d'une vingtaine de livres, en incluant les collectifs. Sur le lot, on compte quatre recueils de poésie et trois recueils de contes.
+Elle est chroniqueuse littéraire à la radio, membre du comité de rédaction de plusieurs revues - notamment XYZ, Vice &amp; Versa et Liberté - en plus d'être traductrice. Elle fait partie de nombreux jurys pour des prix et des bourses littéraires et s’est souvent rendue à l'étranger pour donner des conférences et participer à des animations ou à des lectures publiques. Elle collabore également avec le quotidien Le Devoir.
+Elle devient directrice littéraire des Éditions Hurtubise HMH de 1975 à 1984.
+Elle reçoit en 1984 le prix Canada-Suisse 1984 pour son recueil Invariance. Elle reçoit de nombreux prix au fil de sa carrière, dont plusieurs pour ses traductions. Elle reçoit ainsi le Prix littéraire du Gouverneur général du Canada en 1987 pour la version française de Digging the Mountains de l’écrivain Neil Bissoondath.
+Elle fonde en 1987 Les Éditions Sans Nom, une maison se consacrant principalement à l'édition de livres d'art. En 2003, elle fonde les Éditions Le dernier havre afin de regrouper l’ensemble de l’œuvre de son père l’écrivain Yves Thériault et de gérer l’ensemble de ses droits,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marie_José_Thériault</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Jos%C3%A9_Th%C3%A9riault</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Poésie
-Poèmes: Comme une offrande aux grandes bêtes suivi de À jour fermant, Montréal, Fides, Coll. Voix québécoises, 1972, 93 p.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Poèmes: Comme une offrande aux grandes bêtes suivi de À jour fermant, Montréal, Fides, Coll. Voix québécoises, 1972, 93 p.
 Notre royaume est de promesses, Montréal, Fides, Coll. Voix québécoises, 1974, 59 p.  (ISBN 9780775505030 et 077550503X)
 Pourtant le Sud..., Montréal, Hurtubise HMH, Coll. Sur Parole, 1976, 75 p.  (ISBN 0775800546 et 9780775800548)
 Lettera amorosa, Montréal, Hurtubise HMH, Coll. Sur Parole, 1978. (illustrations de Michelle Thériault), 89 p.  (ISBN 0775801593 et 9780775801590)
 Invariance, Montréal Art Global, 1980, 48 p. Édition de luxe. Tirage limité à 50 exemplaires, accompagné de six lithographies originales de Charles Lemay, rehaussées à l’aquarelle et au pastel; chaque exemplaire numéroté et signé par l’auteur et l’artiste
 Invariance suivi de Célébration du prince, Saint-Lambert, Le Noroît, 1982. (illustrations originales de Charles Lemay), 81 p.  (ISBN 2890180689 et 9782890180680)
-Les Chants de l’oiseleur, Montréal, Art Global, 1988. Édition de luxe. Tirage limité à 30 exemplaires, avec des eaux-fortes de Louisa Nicol et une œuvre pour piano signée Jean Marchand. Chaque exemplaire numéroté et signé par l’auteur, l’artiste et le compositeur.
-Recueils de contes ou nouvelles
-La Cérémonie, Montréal, La Presse, 1978, 139 p.  (ISBN 077770210X et 9780777702109)
+Les Chants de l’oiseleur, Montréal, Art Global, 1988. Édition de luxe. Tirage limité à 30 exemplaires, avec des eaux-fortes de Louisa Nicol et une œuvre pour piano signée Jean Marchand. Chaque exemplaire numéroté et signé par l’auteur, l’artiste et le compositeur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marie_José_Thériault</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Jos%C3%A9_Th%C3%A9riault</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Recueils de contes ou nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Cérémonie, Montréal, La Presse, 1978, 139 p.  (ISBN 077770210X et 9780777702109)
 L’Envoleur de chevaux et autres contes, Montréal, Boréal, 1986 ; réédition, Montréal, Boréal, coll. « Compact » no 56, 1994, 174 p.  (ISBN 2890526313 et 9782890526310)
-Portraits d’Elsa et autres histoires, Montréal, Quinze, 1990 ; réédition, Montréal, Éditions du dernier havre, 2004, 174 p.  (ISBN 2890264033 et 9782890264038)
-Romans et récits
-Les Demoiselles de Numidie, Montréal, Boréal Express, 1984, 244 p.  (ISBN 2890521095 et 9782890521094)
-Obscènes Tendresses, Montréal, Éditions du dernier havre, 2005, 187 p.  (ISBN 2895980128 et 9782895980124)
-Littérature d'enfance et de jeunesse
-Agnès et le singulier bestiaire, Montréal, Éditions Pierre Tisseyre, 1982 (Illustrations de Darcia Labrosse) - Grand Prix de littérature jeunesse du Conseil des Arts du Canada 1982, pour les illustrations de Darcia Labrosse (épuisé), 61 p.  (ISBN 2890510727 et 9782890510722)
-Autre publication
-Le Petit Thériault: 365 dictées, colles et pièges en capsules pour apprentis champions pressés, Westmount, Éditions et Productions Fortuna, 1989. (Illustrations de Philippe Béha). (épuisé), 132 p.  (ISBN 292123100X et 9782921231008)
-Traductions – Liste partielle
-Rocky, Julia Sorel, Montréal, Quinze et Paris, Oyez, 1976 (en collaboration avec Michelle Thériault). (épuisé)
+Portraits d’Elsa et autres histoires, Montréal, Quinze, 1990 ; réédition, Montréal, Éditions du dernier havre, 2004, 174 p.  (ISBN 2890264033 et 9782890264038)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marie_José_Thériault</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Jos%C3%A9_Th%C3%A9riault</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans et récits</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les Demoiselles de Numidie, Montréal, Boréal Express, 1984, 244 p.  (ISBN 2890521095 et 9782890521094)
+Obscènes Tendresses, Montréal, Éditions du dernier havre, 2005, 187 p.  (ISBN 2895980128 et 9782895980124)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marie_José_Thériault</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Jos%C3%A9_Th%C3%A9riault</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Agnès et le singulier bestiaire, Montréal, Éditions Pierre Tisseyre, 1982 (Illustrations de Darcia Labrosse) - Grand Prix de littérature jeunesse du Conseil des Arts du Canada 1982, pour les illustrations de Darcia Labrosse (épuisé), 61 p.  (ISBN 2890510727 et 9782890510722)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Marie_José_Thériault</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Jos%C3%A9_Th%C3%A9riault</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autre publication</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le Petit Thériault: 365 dictées, colles et pièges en capsules pour apprentis champions pressés, Westmount, Éditions et Productions Fortuna, 1989. (Illustrations de Philippe Béha). (épuisé), 132 p.  (ISBN 292123100X et 9782921231008)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Marie_José_Thériault</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Jos%C3%A9_Th%C3%A9riault</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Traductions – Liste partielle</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Rocky, Julia Sorel, Montréal, Quinze et Paris, Oyez, 1976 (en collaboration avec Michelle Thériault). (épuisé)
 Gros Thomas fête; Gros Thomas à la ferme; Gros Thomas dans l’eau; Gros Thomas reste à la maison; Gros Thomas est un artiste; Gros Thomas à la montagne (6 livrets), Cristina Lastrego et Francesco Testa, Montréal, Éditions Paulines.
 Noël dans l’histoire, dans la littérature, dans les traditions (Natale nella storia, nella letteratura, nelle tradizioni), sous la direction de Marcelle Contardi, Montréal, Éditions Paulines, 1985.
 L’Étalon (The Studhorse Man), Robert Kroetsch, Québec/Amérique, 1990.
@@ -617,51 +876,87 @@
 Des gens irréprochables – (The Best Kind of People, Toronto, House of Anansi, 2016 (finaliste au prix Giller), roman, Zoe Whittall, Montréal, Éditions de l’Homme, 2019
 La Guérison dans le champ unifié – La médecine de demain — (Unified Field Healing: Foundations of Energy Medicine and Quantum Healing, Montréal, Ariane Books, 2019
 Un grain de moutarde — (Mustard Seed, Seattle, Lake Union, 2017), roman, Laila Ibrahim, AmazonCrossing, AmazonMedia EU, 2020
-Le théâtre de Venise, «Les mystères de Venise, tome 3» (Sipario veneziano, Milan, Grandi &amp; Associati, 2016), roman, Maria Luisa Minarelli, Luxembourg, Amazon Crossing, Amazon Media EU Sàrl, 2020
-Discographie
-Marie José Thériault chante Jacques Blanchet , 33 tours CBS PFC-80074, 1982 (avec André Gagnon au piano).</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Marie_Jos%C3%A9_Th%C3%A9riault</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Marie_Jos%C3%A9_Th%C3%A9riault</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Le théâtre de Venise, «Les mystères de Venise, tome 3» (Sipario veneziano, Milan, Grandi &amp; Associati, 2016), roman, Maria Luisa Minarelli, Luxembourg, Amazon Crossing, Amazon Media EU Sàrl, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Marie_José_Thériault</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Jos%C3%A9_Th%C3%A9riault</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Marie José Thériault chante Jacques Blanchet , 33 tours CBS PFC-80074, 1982 (avec André Gagnon au piano).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Marie_José_Thériault</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Jos%C3%A9_Th%C3%A9riault</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Prix et honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1983: lauréate du Prix Canada-Suisse pour un livre de proses poétiques intitulé Invariance suivi de Célébration du Prince[1]
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1983: lauréate du Prix Canada-Suisse pour un livre de proses poétiques intitulé Invariance suivi de Célébration du Prince
 1984: Finaliste au Prix du Gouverneur général du Canada (fiction) pour le roman Les Demoiselles de Numidie.
 1985: Finaliste au Prix Molson de l’Académie canadienne-française pour Les Demoiselles de Numidie.
 1985: Finaliste au Grand Prix de la science fiction et du fantastique québécois pour Les Demoiselles de Numidie.
 1987: Finaliste pour le Ruban de la critique québécoise aux Rubans de la francophonie, décerné par la Radio-Télévision Suisse-Romande, pour L'Envoleur de chevaux et autres contes.
 1987: Finaliste au Prix Québec-Paris pour L'Envoleur de chevaux et autres contes.
 1987: Finaliste au Grand Prix Boréal de la science-fiction et du fantastique pour L'Envoleur de chevaux et autres contes.
-1993: lauréate du Prix du Gouverneur général pour la traduction de Wales’ Work (L’Œuvre du Gallois) de Robert Walshe[8].
-1995: Finaliste au Prix du Gouverneur général du Canada (Traduction) pour À l'aube de lendemains précaires[9].
-1997 : lauréate du Prix du Gouverneur général pour la traduction de Digging up the Mountains (Arracher les montagnes) de Neil Bissoondath[10].
-1996: lauréate du Prix Les Mots d’or décerné à Paris par l’APFA (Actions pour promouvoir le français des affaires) pour la traduction de Clicking (Clicking) de Faith Popcorn[3].
-1999: Finaliste au Prix du gouverneur général du Canada (Traduction) pour Ours[11]
-2002: Masque de la Traduction/Adaptation, décerné par l'Académie québécoise du théâtre, pour la traduction de Macbeth (Shakespeare), une production du Théâtre du Nouveau Monde[12].</t>
+1993: lauréate du Prix du Gouverneur général pour la traduction de Wales’ Work (L’Œuvre du Gallois) de Robert Walshe.
+1995: Finaliste au Prix du Gouverneur général du Canada (Traduction) pour À l'aube de lendemains précaires.
+1997 : lauréate du Prix du Gouverneur général pour la traduction de Digging up the Mountains (Arracher les montagnes) de Neil Bissoondath.
+1996: lauréate du Prix Les Mots d’or décerné à Paris par l’APFA (Actions pour promouvoir le français des affaires) pour la traduction de Clicking (Clicking) de Faith Popcorn.
+1999: Finaliste au Prix du gouverneur général du Canada (Traduction) pour Ours
+2002: Masque de la Traduction/Adaptation, décerné par l'Académie québécoise du théâtre, pour la traduction de Macbeth (Shakespeare), une production du Théâtre du Nouveau Monde.</t>
         </is>
       </c>
     </row>
